--- a/Code/Results/Cases/Case_4_213/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_213/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9415160234092355</v>
+        <v>0.4095395551410945</v>
       </c>
       <c r="C2">
-        <v>0.1417962193386302</v>
+        <v>0.1722077596581713</v>
       </c>
       <c r="D2">
-        <v>0.1950482378854588</v>
+        <v>0.07827828017953209</v>
       </c>
       <c r="E2">
-        <v>0.05587395879713597</v>
+        <v>0.1274714773545842</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4171339890995469</v>
+        <v>0.7598749259888038</v>
       </c>
       <c r="H2">
-        <v>0.3582979094786012</v>
+        <v>0.8568042189395513</v>
       </c>
       <c r="I2">
-        <v>0.3969091131046802</v>
+        <v>0.887759677257641</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8812236774383848</v>
+        <v>0.2711847320485106</v>
       </c>
       <c r="L2">
-        <v>0.1599197387014613</v>
+        <v>0.2092779248668464</v>
       </c>
       <c r="M2">
-        <v>0.202961796530861</v>
+        <v>0.1331230801806988</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.581573755333537</v>
+        <v>3.243799351104769</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8187374229034674</v>
+        <v>0.3731603414961455</v>
       </c>
       <c r="C3">
-        <v>0.1376511851107054</v>
+        <v>0.1707302140052676</v>
       </c>
       <c r="D3">
-        <v>0.1693657165025968</v>
+        <v>0.07104946101929954</v>
       </c>
       <c r="E3">
-        <v>0.05550339510953428</v>
+        <v>0.1281025825239599</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4101478176274753</v>
+        <v>0.7639047782140906</v>
       </c>
       <c r="H3">
-        <v>0.361092186131188</v>
+        <v>0.8625346178171753</v>
       </c>
       <c r="I3">
-        <v>0.40315567764139</v>
+        <v>0.8952137378075555</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7723756763203795</v>
+        <v>0.2369687000987426</v>
       </c>
       <c r="L3">
-        <v>0.1457042901254439</v>
+        <v>0.2066352816822672</v>
       </c>
       <c r="M3">
-        <v>0.1771506663619746</v>
+        <v>0.1261100579064092</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.572239292912741</v>
+        <v>3.264073511488633</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7434263396398819</v>
+        <v>0.3508771670434214</v>
       </c>
       <c r="C4">
-        <v>0.1351152541566663</v>
+        <v>0.1698207491983226</v>
       </c>
       <c r="D4">
-        <v>0.1537196844440132</v>
+        <v>0.06664359688569732</v>
       </c>
       <c r="E4">
-        <v>0.05535070066203751</v>
+        <v>0.1285392103504286</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4067551367901672</v>
+        <v>0.7668249784200043</v>
       </c>
       <c r="H4">
-        <v>0.3633630657162854</v>
+        <v>0.8663906553822827</v>
       </c>
       <c r="I4">
-        <v>0.4077292564343864</v>
+        <v>0.9001997381931446</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7054938031258331</v>
+        <v>0.21590291334158</v>
       </c>
       <c r="L4">
-        <v>0.137141888984651</v>
+        <v>0.2051131320339152</v>
       </c>
       <c r="M4">
-        <v>0.1613722592634517</v>
+        <v>0.1218492617434386</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.569561826883074</v>
+        <v>3.278164427096812</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7127465335019565</v>
+        <v>0.3418107588284727</v>
       </c>
       <c r="C5">
-        <v>0.134083864201628</v>
+        <v>0.1694496006505517</v>
       </c>
       <c r="D5">
-        <v>0.147371143691899</v>
+        <v>0.06485642092464161</v>
       </c>
       <c r="E5">
-        <v>0.05530680070911842</v>
+        <v>0.1287295132376212</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4055885555095458</v>
+        <v>0.7681270929297739</v>
       </c>
       <c r="H5">
-        <v>0.3644238859356861</v>
+        <v>0.8680469835673037</v>
       </c>
       <c r="I5">
-        <v>0.4097727561038766</v>
+        <v>0.9023345069459729</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6782192511868317</v>
+        <v>0.2073046157738503</v>
       </c>
       <c r="L5">
-        <v>0.1336919595377424</v>
+        <v>0.2045181744161582</v>
       </c>
       <c r="M5">
-        <v>0.1549575904513638</v>
+        <v>0.1201244547879732</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.569209628877203</v>
+        <v>3.284319765003389</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7076525326194201</v>
+        <v>0.34030616298881</v>
       </c>
       <c r="C6">
-        <v>0.13391271718978</v>
+        <v>0.1693879403480238</v>
       </c>
       <c r="D6">
-        <v>0.1463185220866023</v>
+        <v>0.06456016104387174</v>
       </c>
       <c r="E6">
-        <v>0.05530060385131996</v>
+        <v>0.1287618608094991</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4054076177783799</v>
+        <v>0.7683500790393225</v>
       </c>
       <c r="H6">
-        <v>0.3646080944014756</v>
+        <v>0.8683271494837257</v>
       </c>
       <c r="I6">
-        <v>0.4101227655148669</v>
+        <v>0.9026952018203112</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6736889384817459</v>
+        <v>0.2058760556284369</v>
       </c>
       <c r="L6">
-        <v>0.1331214077919753</v>
+        <v>0.2044209142253806</v>
       </c>
       <c r="M6">
-        <v>0.1538932881609547</v>
+        <v>0.1198387504085439</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.569194949045993</v>
+        <v>3.285366813531866</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7430125516767419</v>
+        <v>0.350754836089294</v>
       </c>
       <c r="C7">
-        <v>0.1351013366308891</v>
+        <v>0.1698157458812517</v>
       </c>
       <c r="D7">
-        <v>0.1536339597558083</v>
+        <v>0.06661946095576354</v>
       </c>
       <c r="E7">
-        <v>0.05535003505463543</v>
+        <v>0.1285417267149178</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4067385417601912</v>
+        <v>0.7668420852722022</v>
       </c>
       <c r="H7">
-        <v>0.3633768293986464</v>
+        <v>0.8664126490889075</v>
       </c>
       <c r="I7">
-        <v>0.4077560956620232</v>
+        <v>0.9002281116031483</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7051260579752778</v>
+        <v>0.2157870089589551</v>
       </c>
       <c r="L7">
-        <v>0.1370952059338251</v>
+        <v>0.2051050055667361</v>
       </c>
       <c r="M7">
-        <v>0.1612856904629005</v>
+        <v>0.1218259536506672</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.569554122711438</v>
+        <v>3.278245767000357</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8991607462340028</v>
+        <v>0.3969852033262953</v>
       </c>
       <c r="C8">
-        <v>0.1403649420680821</v>
+        <v>0.1716987858098591</v>
       </c>
       <c r="D8">
-        <v>0.1861651109789335</v>
+        <v>0.07577902468162279</v>
       </c>
       <c r="E8">
-        <v>0.05573035360309575</v>
+        <v>0.1276788982144534</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4145331267918024</v>
+        <v>0.7611718782373629</v>
       </c>
       <c r="H8">
-        <v>0.359143568858407</v>
+        <v>0.8587100511437313</v>
       </c>
       <c r="I8">
-        <v>0.3989061001003158</v>
+        <v>0.8902449380516764</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.843698398002914</v>
+        <v>0.2593991744578545</v>
       </c>
       <c r="L8">
-        <v>0.1549823225226419</v>
+        <v>0.2083459370159062</v>
       </c>
       <c r="M8">
-        <v>0.1940461715828938</v>
+        <v>0.1306956781161155</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.577703497694429</v>
+        <v>3.25044907199738</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.206406866202968</v>
+        <v>0.4880464189762108</v>
       </c>
       <c r="C9">
-        <v>0.1507733224563523</v>
+        <v>0.1753724434715238</v>
       </c>
       <c r="D9">
-        <v>0.251109746216656</v>
+        <v>0.09399936132956555</v>
       </c>
       <c r="E9">
-        <v>0.05709326220414823</v>
+        <v>0.126375841437774</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4373879984719338</v>
+        <v>0.7535910460426294</v>
       </c>
       <c r="H9">
-        <v>0.3554458091640953</v>
+        <v>0.8462800869599221</v>
       </c>
       <c r="I9">
-        <v>0.3876864535228357</v>
+        <v>0.8739128155628819</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.115418696853368</v>
+        <v>0.3444515786183615</v>
       </c>
       <c r="L9">
-        <v>0.1914914453199614</v>
+        <v>0.2154957004453877</v>
       </c>
       <c r="M9">
-        <v>0.2589589155141354</v>
+        <v>0.1484433241219065</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.619293915684267</v>
+        <v>3.208966934348837</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.433446809910947</v>
+        <v>0.5551704813136666</v>
       </c>
       <c r="C10">
-        <v>0.1584948647285458</v>
+        <v>0.1780586183940613</v>
       </c>
       <c r="D10">
-        <v>0.2997846781165947</v>
+        <v>0.1075438698172633</v>
       </c>
       <c r="E10">
-        <v>0.05850490228120897</v>
+        <v>0.1256545075811033</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4594595984157479</v>
+        <v>0.7501804104248748</v>
       </c>
       <c r="H10">
-        <v>0.3558266930370735</v>
+        <v>0.8387738831236504</v>
       </c>
       <c r="I10">
-        <v>0.3835899289821469</v>
+        <v>0.8638894558869268</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.315601383321507</v>
+        <v>0.4066334494632429</v>
       </c>
       <c r="L10">
-        <v>0.2193600328887726</v>
+        <v>0.2212300811618917</v>
       </c>
       <c r="M10">
-        <v>0.3072338617185935</v>
+        <v>0.1616934788158204</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.667483942484353</v>
+        <v>3.186426560104735</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.537177595711199</v>
+        <v>0.5857502170521514</v>
       </c>
       <c r="C11">
-        <v>0.1620291162810972</v>
+        <v>0.1792775808566418</v>
       </c>
       <c r="D11">
-        <v>0.3221974822962466</v>
+        <v>0.1137401013791219</v>
       </c>
       <c r="E11">
-        <v>0.05924415916117809</v>
+        <v>0.1253773771131854</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4708039742302361</v>
+        <v>0.749098087601098</v>
       </c>
       <c r="H11">
-        <v>0.3567413232668315</v>
+        <v>0.8357112669879285</v>
       </c>
       <c r="I11">
-        <v>0.3827223347474344</v>
+        <v>0.8597581402813823</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.406923833402914</v>
+        <v>0.4348514523795188</v>
       </c>
       <c r="L11">
-        <v>0.2323057524183554</v>
+        <v>0.2239428001373369</v>
       </c>
       <c r="M11">
-        <v>0.3293638216662913</v>
+        <v>0.1677661641006836</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.693712587128232</v>
+        <v>3.177894794435758</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.576536240755246</v>
+        <v>0.5973358357184679</v>
       </c>
       <c r="C12">
-        <v>0.1633710335394483</v>
+        <v>0.1797387130357748</v>
       </c>
       <c r="D12">
-        <v>0.3307288020027386</v>
+        <v>0.1160914320472131</v>
       </c>
       <c r="E12">
-        <v>0.05953875896735283</v>
+        <v>0.1252797506037027</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4753012406355595</v>
+        <v>0.7487557333558783</v>
       </c>
       <c r="H12">
-        <v>0.3572004099554533</v>
+        <v>0.8346020750451544</v>
       </c>
       <c r="I12">
-        <v>0.3825455393760819</v>
+        <v>0.8582552823505623</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.441554079061007</v>
+        <v>0.4455265332057081</v>
       </c>
       <c r="L12">
-        <v>0.237250070241231</v>
+        <v>0.224984945669533</v>
       </c>
       <c r="M12">
-        <v>0.3377718483077388</v>
+        <v>0.17007210852843</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.704306429711863</v>
+        <v>3.174911552998253</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.56805595667845</v>
+        <v>0.5948404212266212</v>
       </c>
       <c r="C13">
-        <v>0.1630818610824605</v>
+        <v>0.1796394210487762</v>
       </c>
       <c r="D13">
-        <v>0.3288893829460875</v>
+        <v>0.1155848114252933</v>
       </c>
       <c r="E13">
-        <v>0.05947464811796976</v>
+        <v>0.125300451091567</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4743234856457121</v>
+        <v>0.7488264630337937</v>
       </c>
       <c r="H13">
-        <v>0.3570964215535213</v>
+        <v>0.8348387119426235</v>
       </c>
       <c r="I13">
-        <v>0.3825767249401082</v>
+        <v>0.8585762110942667</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.434093494591707</v>
+        <v>0.4432279379416002</v>
       </c>
       <c r="L13">
-        <v>0.2361832945047269</v>
+        <v>0.2247598395932613</v>
       </c>
       <c r="M13">
-        <v>0.3359597301687671</v>
+        <v>0.1695752019086143</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.701994726872272</v>
+        <v>3.175543038452048</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.540414010469732</v>
+        <v>0.5867032618313033</v>
       </c>
       <c r="C14">
-        <v>0.1621394422711404</v>
+        <v>0.1793155279309175</v>
       </c>
       <c r="D14">
-        <v>0.3228984447578398</v>
+        <v>0.1139334477913394</v>
       </c>
       <c r="E14">
-        <v>0.05926809813322542</v>
+        <v>0.1253691987859131</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4711698479073902</v>
+        <v>0.7490685689915608</v>
       </c>
       <c r="H14">
-        <v>0.3567767966667219</v>
+        <v>0.8356190002691051</v>
       </c>
       <c r="I14">
-        <v>0.3827046977225841</v>
+        <v>0.8596332651601699</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.4097718467888</v>
+        <v>0.4357299106596884</v>
       </c>
       <c r="L14">
-        <v>0.2327116607713577</v>
+        <v>0.2240282399336451</v>
       </c>
       <c r="M14">
-        <v>0.3300549750540043</v>
+        <v>0.1679557490594377</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.694570636782572</v>
+        <v>3.177644400402471</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.52349309994176</v>
+        <v>0.5817197434568016</v>
       </c>
       <c r="C15">
-        <v>0.1615626629957987</v>
+        <v>0.1791170728675979</v>
       </c>
       <c r="D15">
-        <v>0.3192347222932455</v>
+        <v>0.1129225833973209</v>
       </c>
       <c r="E15">
-        <v>0.05914351075420932</v>
+        <v>0.1254122610580453</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.46926480951511</v>
+        <v>0.7492256569374973</v>
       </c>
       <c r="H15">
-        <v>0.3565958875088029</v>
+        <v>0.8361035312303784</v>
       </c>
       <c r="I15">
-        <v>0.3828031086604042</v>
+        <v>0.8602887605623586</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.394880788669582</v>
+        <v>0.4311357729170311</v>
       </c>
       <c r="L15">
-        <v>0.2305907691436033</v>
+        <v>0.2235820519220653</v>
       </c>
       <c r="M15">
-        <v>0.3264418829931941</v>
+        <v>0.1669646103197238</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.690110633113648</v>
+        <v>3.178963782088232</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.426677926635392</v>
+        <v>0.5531728637210733</v>
       </c>
       <c r="C16">
-        <v>0.1582643674107516</v>
+        <v>0.1779788933661806</v>
       </c>
       <c r="D16">
-        <v>0.2983258259139916</v>
+        <v>0.1071396270979221</v>
       </c>
       <c r="E16">
-        <v>0.0584586025855689</v>
+        <v>0.1256736435720516</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.458745622343784</v>
+        <v>0.7502605865840337</v>
       </c>
       <c r="H16">
-        <v>0.3557823528262389</v>
+        <v>0.8389811100025071</v>
       </c>
       <c r="I16">
-        <v>0.3836673860037401</v>
+        <v>0.8641680654159387</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.309639389677585</v>
+        <v>0.4047879029989474</v>
       </c>
       <c r="L16">
-        <v>0.2185196893610026</v>
+        <v>0.2210548873886751</v>
       </c>
       <c r="M16">
-        <v>0.3057913224083819</v>
+        <v>0.1612975107181285</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.665860057440483</v>
+        <v>3.187018775994488</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.367409279481706</v>
+        <v>0.5356712283196998</v>
       </c>
       <c r="C17">
-        <v>0.1562468351566437</v>
+        <v>0.1772798678080534</v>
       </c>
       <c r="D17">
-        <v>0.2855717355053429</v>
+        <v>0.103600842046518</v>
       </c>
       <c r="E17">
-        <v>0.05806378544275326</v>
+        <v>0.1258470447565667</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4526360118006636</v>
+        <v>0.7510156744773724</v>
       </c>
       <c r="H17">
-        <v>0.3554773936880196</v>
+        <v>0.8408365212428066</v>
       </c>
       <c r="I17">
-        <v>0.384458576631836</v>
+        <v>0.866657595338971</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.257420483948749</v>
+        <v>0.3886063036477196</v>
       </c>
       <c r="L17">
-        <v>0.2111855718392945</v>
+        <v>0.2195311684815806</v>
       </c>
       <c r="M17">
-        <v>0.2931687054450194</v>
+        <v>0.1578323873748815</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.652115439779237</v>
+        <v>3.19240124551041</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.333360939434129</v>
+        <v>0.5256089953631715</v>
       </c>
       <c r="C18">
-        <v>0.1550884154234211</v>
+        <v>0.1768775270888483</v>
       </c>
       <c r="D18">
-        <v>0.278261034857195</v>
+        <v>0.1015687017694518</v>
       </c>
       <c r="E18">
-        <v>0.05784579203096207</v>
+        <v>0.1259515827205711</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4492437706691419</v>
+        <v>0.7514941420162984</v>
       </c>
       <c r="H18">
-        <v>0.3553713801770328</v>
+        <v>0.8419368397054114</v>
       </c>
       <c r="I18">
-        <v>0.3850068491754577</v>
+        <v>0.8681298274366078</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.22740914527725</v>
+        <v>0.3792926296450787</v>
       </c>
       <c r="L18">
-        <v>0.2069921998837856</v>
+        <v>0.2186645704519066</v>
       </c>
       <c r="M18">
-        <v>0.2859242341563615</v>
+        <v>0.1558435955782258</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.644612581625296</v>
+        <v>3.195659182839506</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.321839475335736</v>
+        <v>0.5222028461593027</v>
       </c>
       <c r="C19">
-        <v>0.1546965266369469</v>
+        <v>0.1767412543792233</v>
       </c>
       <c r="D19">
-        <v>0.2757899174110605</v>
+        <v>0.1008812179430407</v>
       </c>
       <c r="E19">
-        <v>0.05777352468134112</v>
+        <v>0.1259878028108634</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4481157340507593</v>
+        <v>0.7516637267050896</v>
       </c>
       <c r="H19">
-        <v>0.3553472234561212</v>
+        <v>0.8423150814910088</v>
       </c>
       <c r="I19">
-        <v>0.3852082409119255</v>
+        <v>0.8686352254768224</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.217251543875648</v>
+        <v>0.3761380897841775</v>
       </c>
       <c r="L19">
-        <v>0.2055765902548359</v>
+        <v>0.2183728415015196</v>
       </c>
       <c r="M19">
-        <v>0.2834739777129158</v>
+        <v>0.1551709599526419</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.642140158448001</v>
+        <v>3.196790104298913</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.37371414703162</v>
+        <v>0.5375338729360806</v>
       </c>
       <c r="C20">
-        <v>0.1564613935579686</v>
+        <v>0.1773543094538894</v>
       </c>
       <c r="D20">
-        <v>0.2869267942483447</v>
+        <v>0.1039772131161527</v>
       </c>
       <c r="E20">
-        <v>0.05810486818440985</v>
+        <v>0.1258280890270669</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4532736819031129</v>
+        <v>0.7509307233787439</v>
       </c>
       <c r="H20">
-        <v>0.3555026322798085</v>
+        <v>0.8406355806497032</v>
       </c>
       <c r="I20">
-        <v>0.3843646470491606</v>
+        <v>0.8663884077420221</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.262976754590596</v>
+        <v>0.3903295337612462</v>
       </c>
       <c r="L20">
-        <v>0.2119636872477741</v>
+        <v>0.2196923567427831</v>
       </c>
       <c r="M20">
-        <v>0.2945107523981605</v>
+        <v>0.1582008162447153</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.653536603812768</v>
+        <v>3.1918114978875</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.54853088996316</v>
+        <v>0.5890931925700329</v>
       </c>
       <c r="C21">
-        <v>0.1624161527348562</v>
+        <v>0.1794106759974738</v>
       </c>
       <c r="D21">
-        <v>0.3246568891859027</v>
+        <v>0.1144183592975736</v>
       </c>
       <c r="E21">
-        <v>0.05932836326483226</v>
+        <v>0.1253488074904041</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4720905666299444</v>
+        <v>0.7489956245053264</v>
       </c>
       <c r="H21">
-        <v>0.3568675677758648</v>
+        <v>0.8353884391363238</v>
       </c>
       <c r="I21">
-        <v>0.3826629200568021</v>
+        <v>0.8593211115790815</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.416914296477927</v>
+        <v>0.4379325515270409</v>
       </c>
       <c r="L21">
-        <v>0.2337301934417439</v>
+        <v>0.2242427247636982</v>
       </c>
       <c r="M21">
-        <v>0.331788558524039</v>
+        <v>0.1684312503744749</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.696732964763015</v>
+        <v>3.177020461451974</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.663245596950873</v>
+        <v>0.6228233072489502</v>
       </c>
       <c r="C22">
-        <v>0.1663289971707655</v>
+        <v>0.1807519200935843</v>
       </c>
       <c r="D22">
-        <v>0.3495752571410833</v>
+        <v>0.1212710948776987</v>
       </c>
       <c r="E22">
-        <v>0.0602137865999115</v>
+        <v>0.1250782087223499</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4855694988131489</v>
+        <v>0.7481243677122933</v>
       </c>
       <c r="H22">
-        <v>0.3584198830904484</v>
+        <v>0.8322537695284495</v>
       </c>
       <c r="I22">
-        <v>0.3824395779218577</v>
+        <v>0.8550611622991831</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.517809406972674</v>
+        <v>0.4689826192223165</v>
       </c>
       <c r="L22">
-        <v>0.2482027758921674</v>
+        <v>0.2273034538911531</v>
       </c>
       <c r="M22">
-        <v>0.3563161412011695</v>
+        <v>0.1751543807435567</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.728842393486673</v>
+        <v>3.168796562447056</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.60197324174905</v>
+        <v>0.6048181062131448</v>
       </c>
       <c r="C23">
-        <v>0.1642385504356554</v>
+        <v>0.1800363314586946</v>
       </c>
       <c r="D23">
-        <v>0.3362502986812927</v>
+        <v>0.1176110376192696</v>
       </c>
       <c r="E23">
-        <v>0.05973312787457452</v>
+        <v>0.1252187368448929</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4782626451934959</v>
+        <v>0.7485533646450335</v>
       </c>
       <c r="H23">
-        <v>0.3575288386746536</v>
+        <v>0.8338998624502949</v>
       </c>
       <c r="I23">
-        <v>0.3824744893929335</v>
+        <v>0.8573019399711548</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.46392949507765</v>
+        <v>0.4524164050546915</v>
       </c>
       <c r="L23">
-        <v>0.2404546802755618</v>
+        <v>0.225661967614883</v>
       </c>
       <c r="M23">
-        <v>0.343209039814468</v>
+        <v>0.1715627842918721</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.711335428004759</v>
+        <v>3.173053808075082</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.370863636450537</v>
+        <v>0.5366917722185178</v>
       </c>
       <c r="C24">
-        <v>0.1563643871086313</v>
+        <v>0.1773206558221574</v>
       </c>
       <c r="D24">
-        <v>0.2863141046912716</v>
+        <v>0.1038070484190428</v>
       </c>
       <c r="E24">
-        <v>0.05808626672038564</v>
+        <v>0.1258366438123844</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.452985017721744</v>
+        <v>0.7509689916018516</v>
       </c>
       <c r="H24">
-        <v>0.3554910064813868</v>
+        <v>0.8407263211693987</v>
       </c>
       <c r="I24">
-        <v>0.3844068223117816</v>
+        <v>0.8665099798400178</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.26046473430938</v>
+        <v>0.3895504945802486</v>
       </c>
       <c r="L24">
-        <v>0.2116118295510745</v>
+        <v>0.2196194542191847</v>
       </c>
       <c r="M24">
-        <v>0.2939039744885434</v>
+        <v>0.1580342390959188</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.652892855596264</v>
+        <v>3.192077613540533</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.123110524386277</v>
+        <v>0.4633712940616022</v>
       </c>
       <c r="C25">
-        <v>0.1479461789616821</v>
+        <v>0.1743807878101507</v>
       </c>
       <c r="D25">
-        <v>0.2333914645075055</v>
+        <v>0.08904255652797133</v>
       </c>
       <c r="E25">
-        <v>0.05665508052283919</v>
+        <v>0.1266868261313405</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4303284135604031</v>
+        <v>0.7552628519774487</v>
       </c>
       <c r="H25">
-        <v>0.3559242913639764</v>
+        <v>0.8493568359845796</v>
       </c>
       <c r="I25">
-        <v>0.390024314687512</v>
+        <v>0.8779839415336141</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.041857506883588</v>
+        <v>0.3214950393530671</v>
       </c>
       <c r="L25">
-        <v>0.1814442338161584</v>
+        <v>0.2134767509219486</v>
       </c>
       <c r="M25">
-        <v>0.241309163090591</v>
+        <v>0.143604712915284</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.605099433978808</v>
+        <v>3.21879483704501</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_213/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_213/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4095395551410945</v>
+        <v>0.9415160234092355</v>
       </c>
       <c r="C2">
-        <v>0.1722077596581713</v>
+        <v>0.1417962193387083</v>
       </c>
       <c r="D2">
-        <v>0.07827828017953209</v>
+        <v>0.1950482378856293</v>
       </c>
       <c r="E2">
-        <v>0.1274714773545842</v>
+        <v>0.05587395879716262</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.7598749259888038</v>
+        <v>0.4171339890994687</v>
       </c>
       <c r="H2">
-        <v>0.8568042189395513</v>
+        <v>0.3582979094786012</v>
       </c>
       <c r="I2">
-        <v>0.887759677257641</v>
+        <v>0.3969091131046731</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2711847320485106</v>
+        <v>0.8812236774383848</v>
       </c>
       <c r="L2">
-        <v>0.2092779248668464</v>
+        <v>0.1599197387013547</v>
       </c>
       <c r="M2">
-        <v>0.1331230801806988</v>
+        <v>0.2029617965308574</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.243799351104769</v>
+        <v>1.581573755333508</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3731603414961455</v>
+        <v>0.8187374229033821</v>
       </c>
       <c r="C3">
-        <v>0.1707302140052676</v>
+        <v>0.1376511851112525</v>
       </c>
       <c r="D3">
-        <v>0.07104946101929954</v>
+        <v>0.1693657165027957</v>
       </c>
       <c r="E3">
-        <v>0.1281025825239599</v>
+        <v>0.05550339510957514</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7639047782140906</v>
+        <v>0.4101478176275322</v>
       </c>
       <c r="H3">
-        <v>0.8625346178171753</v>
+        <v>0.3610921861311738</v>
       </c>
       <c r="I3">
-        <v>0.8952137378075555</v>
+        <v>0.4031556776413829</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2369687000987426</v>
+        <v>0.7723756763202658</v>
       </c>
       <c r="L3">
-        <v>0.2066352816822672</v>
+        <v>0.14570429012538</v>
       </c>
       <c r="M3">
-        <v>0.1261100579064092</v>
+        <v>0.1771506663619533</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.264073511488633</v>
+        <v>1.572239292912599</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3508771670434214</v>
+        <v>0.7434263396397114</v>
       </c>
       <c r="C4">
-        <v>0.1698207491983226</v>
+        <v>0.1351152541565952</v>
       </c>
       <c r="D4">
-        <v>0.06664359688569732</v>
+        <v>0.1537196844439563</v>
       </c>
       <c r="E4">
-        <v>0.1285392103504286</v>
+        <v>0.05535070066205527</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7668249784200043</v>
+        <v>0.4067551367901032</v>
       </c>
       <c r="H4">
-        <v>0.8663906553822827</v>
+        <v>0.3633630657161717</v>
       </c>
       <c r="I4">
-        <v>0.9001997381931446</v>
+        <v>0.4077292564344113</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.21590291334158</v>
+        <v>0.7054938031259468</v>
       </c>
       <c r="L4">
-        <v>0.2051131320339152</v>
+        <v>0.1371418889846723</v>
       </c>
       <c r="M4">
-        <v>0.1218492617434386</v>
+        <v>0.1613722592634517</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.278164427096812</v>
+        <v>1.569561826883103</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3418107588284727</v>
+        <v>0.7127465335020133</v>
       </c>
       <c r="C5">
-        <v>0.1694496006505517</v>
+        <v>0.1340838642014006</v>
       </c>
       <c r="D5">
-        <v>0.06485642092464161</v>
+        <v>0.1473711436920837</v>
       </c>
       <c r="E5">
-        <v>0.1287295132376212</v>
+        <v>0.0553068007091202</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7681270929297739</v>
+        <v>0.4055885555094179</v>
       </c>
       <c r="H5">
-        <v>0.8680469835673037</v>
+        <v>0.3644238859355724</v>
       </c>
       <c r="I5">
-        <v>0.9023345069459729</v>
+        <v>0.4097727561038695</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2073046157738503</v>
+        <v>0.6782192511867606</v>
       </c>
       <c r="L5">
-        <v>0.2045181744161582</v>
+        <v>0.1336919595376784</v>
       </c>
       <c r="M5">
-        <v>0.1201244547879732</v>
+        <v>0.1549575904513567</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.284319765003389</v>
+        <v>1.569209628877175</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.34030616298881</v>
+        <v>0.7076525326193064</v>
       </c>
       <c r="C6">
-        <v>0.1693879403480238</v>
+        <v>0.1339127171894816</v>
       </c>
       <c r="D6">
-        <v>0.06456016104387174</v>
+        <v>0.1463185220865881</v>
       </c>
       <c r="E6">
-        <v>0.1287618608094991</v>
+        <v>0.05530060385132174</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.7683500790393225</v>
+        <v>0.4054076177783585</v>
       </c>
       <c r="H6">
-        <v>0.8683271494837257</v>
+        <v>0.3646080944013619</v>
       </c>
       <c r="I6">
-        <v>0.9026952018203112</v>
+        <v>0.4101227655148563</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2058760556284369</v>
+        <v>0.6736889384816465</v>
       </c>
       <c r="L6">
-        <v>0.2044209142253806</v>
+        <v>0.1331214077920535</v>
       </c>
       <c r="M6">
-        <v>0.1198387504085439</v>
+        <v>0.1538932881609512</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.285366813531866</v>
+        <v>1.569194949045965</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.350754836089294</v>
+        <v>0.7430125516769692</v>
       </c>
       <c r="C7">
-        <v>0.1698157458812517</v>
+        <v>0.1351013366308749</v>
       </c>
       <c r="D7">
-        <v>0.06661946095576354</v>
+        <v>0.1536339597556378</v>
       </c>
       <c r="E7">
-        <v>0.1285417267149178</v>
+        <v>0.05535003505461944</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7668420852722022</v>
+        <v>0.4067385417601912</v>
       </c>
       <c r="H7">
-        <v>0.8664126490889075</v>
+        <v>0.36337682939876</v>
       </c>
       <c r="I7">
-        <v>0.9002281116031483</v>
+        <v>0.4077560956620054</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2157870089589551</v>
+        <v>0.7051260579752778</v>
       </c>
       <c r="L7">
-        <v>0.2051050055667361</v>
+        <v>0.1370952059338109</v>
       </c>
       <c r="M7">
-        <v>0.1218259536506672</v>
+        <v>0.1612856904629076</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.278245767000357</v>
+        <v>1.569554122711452</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3969852033262953</v>
+        <v>0.8991607462340312</v>
       </c>
       <c r="C8">
-        <v>0.1716987858098591</v>
+        <v>0.1403649420681603</v>
       </c>
       <c r="D8">
-        <v>0.07577902468162279</v>
+        <v>0.1861651109790898</v>
       </c>
       <c r="E8">
-        <v>0.1276788982144534</v>
+        <v>0.05573035360310818</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.7611718782373629</v>
+        <v>0.4145331267918095</v>
       </c>
       <c r="H8">
-        <v>0.8587100511437313</v>
+        <v>0.359143568858407</v>
       </c>
       <c r="I8">
-        <v>0.8902449380516764</v>
+        <v>0.3989061001003158</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2593991744578545</v>
+        <v>0.8436983980029424</v>
       </c>
       <c r="L8">
-        <v>0.2083459370159062</v>
+        <v>0.1549823225226632</v>
       </c>
       <c r="M8">
-        <v>0.1306956781161155</v>
+        <v>0.1940461715828974</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.25044907199738</v>
+        <v>1.577703497694444</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4880464189762108</v>
+        <v>1.206406866202997</v>
       </c>
       <c r="C9">
-        <v>0.1753724434715238</v>
+        <v>0.1507733224561818</v>
       </c>
       <c r="D9">
-        <v>0.09399936132956555</v>
+        <v>0.2511097462166134</v>
       </c>
       <c r="E9">
-        <v>0.126375841437774</v>
+        <v>0.05709326220416244</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.7535910460426294</v>
+        <v>0.4373879984719906</v>
       </c>
       <c r="H9">
-        <v>0.8462800869599221</v>
+        <v>0.3554458091639816</v>
       </c>
       <c r="I9">
-        <v>0.8739128155628819</v>
+        <v>0.3876864535228144</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3444515786183615</v>
+        <v>1.115418696853425</v>
       </c>
       <c r="L9">
-        <v>0.2154957004453877</v>
+        <v>0.1914914453199543</v>
       </c>
       <c r="M9">
-        <v>0.1484433241219065</v>
+        <v>0.2589589155141283</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.208966934348837</v>
+        <v>1.619293915684295</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5551704813136666</v>
+        <v>1.433446809910862</v>
       </c>
       <c r="C10">
-        <v>0.1780586183940613</v>
+        <v>0.1584948647280839</v>
       </c>
       <c r="D10">
-        <v>0.1075438698172633</v>
+        <v>0.2997846781168363</v>
       </c>
       <c r="E10">
-        <v>0.1256545075811033</v>
+        <v>0.05850490228120542</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7501804104248748</v>
+        <v>0.4594595984156911</v>
       </c>
       <c r="H10">
-        <v>0.8387738831236504</v>
+        <v>0.3558266930370735</v>
       </c>
       <c r="I10">
-        <v>0.8638894558869268</v>
+        <v>0.3835899289821327</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4066334494632429</v>
+        <v>1.315601383321479</v>
       </c>
       <c r="L10">
-        <v>0.2212300811618917</v>
+        <v>0.2193600328887015</v>
       </c>
       <c r="M10">
-        <v>0.1616934788158204</v>
+        <v>0.3072338617185935</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.186426560104735</v>
+        <v>1.667483942484296</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5857502170521514</v>
+        <v>1.537177595710972</v>
       </c>
       <c r="C11">
-        <v>0.1792775808566418</v>
+        <v>0.1620291162808769</v>
       </c>
       <c r="D11">
-        <v>0.1137401013791219</v>
+        <v>0.3221974822962892</v>
       </c>
       <c r="E11">
-        <v>0.1253773771131854</v>
+        <v>0.05924415916116565</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.749098087601098</v>
+        <v>0.4708039742302361</v>
       </c>
       <c r="H11">
-        <v>0.8357112669879285</v>
+        <v>0.3567413232668457</v>
       </c>
       <c r="I11">
-        <v>0.8597581402813823</v>
+        <v>0.3827223347474558</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4348514523795188</v>
+        <v>1.406923833402885</v>
       </c>
       <c r="L11">
-        <v>0.2239428001373369</v>
+        <v>0.2323057524184549</v>
       </c>
       <c r="M11">
-        <v>0.1677661641006836</v>
+        <v>0.3293638216662913</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.177894794435758</v>
+        <v>1.693712587128203</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5973358357184679</v>
+        <v>1.576536240755104</v>
       </c>
       <c r="C12">
-        <v>0.1797387130357748</v>
+        <v>0.1633710335390646</v>
       </c>
       <c r="D12">
-        <v>0.1160914320472131</v>
+        <v>0.3307288020031933</v>
       </c>
       <c r="E12">
-        <v>0.1252797506037027</v>
+        <v>0.05953875896736349</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7487557333558783</v>
+        <v>0.4753012406355168</v>
       </c>
       <c r="H12">
-        <v>0.8346020750451544</v>
+        <v>0.3572004099554533</v>
       </c>
       <c r="I12">
-        <v>0.8582552823505623</v>
+        <v>0.3825455393760819</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4455265332057081</v>
+        <v>1.441554079061063</v>
       </c>
       <c r="L12">
-        <v>0.224984945669533</v>
+        <v>0.2372500702411884</v>
       </c>
       <c r="M12">
-        <v>0.17007210852843</v>
+        <v>0.3377718483077246</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.174911552998253</v>
+        <v>1.704306429711863</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5948404212266212</v>
+        <v>1.568055956678421</v>
       </c>
       <c r="C13">
-        <v>0.1796394210487762</v>
+        <v>0.1630818610826097</v>
       </c>
       <c r="D13">
-        <v>0.1155848114252933</v>
+        <v>0.3288893829459738</v>
       </c>
       <c r="E13">
-        <v>0.125300451091567</v>
+        <v>0.05947464811796443</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7488264630337937</v>
+        <v>0.4743234856456695</v>
       </c>
       <c r="H13">
-        <v>0.8348387119426235</v>
+        <v>0.357096421553635</v>
       </c>
       <c r="I13">
-        <v>0.8585762110942667</v>
+        <v>0.3825767249401295</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4432279379416002</v>
+        <v>1.434093494591764</v>
       </c>
       <c r="L13">
-        <v>0.2247598395932613</v>
+        <v>0.2361832945047411</v>
       </c>
       <c r="M13">
-        <v>0.1695752019086143</v>
+        <v>0.3359597301687458</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.175543038452048</v>
+        <v>1.701994726872329</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5867032618313033</v>
+        <v>1.540414010469505</v>
       </c>
       <c r="C14">
-        <v>0.1793155279309175</v>
+        <v>0.1621394422708988</v>
       </c>
       <c r="D14">
-        <v>0.1139334477913394</v>
+        <v>0.3228984447576551</v>
       </c>
       <c r="E14">
-        <v>0.1253691987859131</v>
+        <v>0.05926809813323608</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7490685689915608</v>
+        <v>0.4711698479074471</v>
       </c>
       <c r="H14">
-        <v>0.8356190002691051</v>
+        <v>0.3567767966666224</v>
       </c>
       <c r="I14">
-        <v>0.8596332651601699</v>
+        <v>0.3827046977226054</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4357299106596884</v>
+        <v>1.409771846788857</v>
       </c>
       <c r="L14">
-        <v>0.2240282399336451</v>
+        <v>0.2327116607712867</v>
       </c>
       <c r="M14">
-        <v>0.1679557490594377</v>
+        <v>0.3300549750540185</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.177644400402471</v>
+        <v>1.694570636782572</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5817197434568016</v>
+        <v>1.523493099941476</v>
       </c>
       <c r="C15">
-        <v>0.1791170728675979</v>
+        <v>0.1615626629955642</v>
       </c>
       <c r="D15">
-        <v>0.1129225833973209</v>
+        <v>0.3192347222933876</v>
       </c>
       <c r="E15">
-        <v>0.1254122610580453</v>
+        <v>0.05914351075420754</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7492256569374973</v>
+        <v>0.4692648095150815</v>
       </c>
       <c r="H15">
-        <v>0.8361035312303784</v>
+        <v>0.3565958875089166</v>
       </c>
       <c r="I15">
-        <v>0.8602887605623586</v>
+        <v>0.3828031086604042</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4311357729170311</v>
+        <v>1.394880788669496</v>
       </c>
       <c r="L15">
-        <v>0.2235820519220653</v>
+        <v>0.2305907691435323</v>
       </c>
       <c r="M15">
-        <v>0.1669646103197238</v>
+        <v>0.3264418829931799</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.178963782088232</v>
+        <v>1.690110633113591</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5531728637210733</v>
+        <v>1.426677926635364</v>
       </c>
       <c r="C16">
-        <v>0.1779788933661806</v>
+        <v>0.1582643674108155</v>
       </c>
       <c r="D16">
-        <v>0.1071396270979221</v>
+        <v>0.2983258259139205</v>
       </c>
       <c r="E16">
-        <v>0.1256736435720516</v>
+        <v>0.05845860258557956</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7502605865840337</v>
+        <v>0.458745622343784</v>
       </c>
       <c r="H16">
-        <v>0.8389811100025071</v>
+        <v>0.3557823528262531</v>
       </c>
       <c r="I16">
-        <v>0.8641680654159387</v>
+        <v>0.383667386003733</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4047879029989474</v>
+        <v>1.309639389677585</v>
       </c>
       <c r="L16">
-        <v>0.2210548873886751</v>
+        <v>0.2185196893610595</v>
       </c>
       <c r="M16">
-        <v>0.1612975107181285</v>
+        <v>0.305791322408389</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.187018775994488</v>
+        <v>1.665860057440483</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5356712283196998</v>
+        <v>1.36740927948162</v>
       </c>
       <c r="C17">
-        <v>0.1772798678080534</v>
+        <v>0.1562468351566579</v>
       </c>
       <c r="D17">
-        <v>0.103600842046518</v>
+        <v>0.2855717355053571</v>
       </c>
       <c r="E17">
-        <v>0.1258470447565667</v>
+        <v>0.05806378544275148</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.7510156744773724</v>
+        <v>0.4526360118006636</v>
       </c>
       <c r="H17">
-        <v>0.8408365212428066</v>
+        <v>0.3554773936880338</v>
       </c>
       <c r="I17">
-        <v>0.866657595338971</v>
+        <v>0.3844585766318573</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3886063036477196</v>
+        <v>1.257420483948664</v>
       </c>
       <c r="L17">
-        <v>0.2195311684815806</v>
+        <v>0.2111855718394224</v>
       </c>
       <c r="M17">
-        <v>0.1578323873748815</v>
+        <v>0.2931687054450265</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.19240124551041</v>
+        <v>1.652115439779209</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5256089953631715</v>
+        <v>1.333360939433987</v>
       </c>
       <c r="C18">
-        <v>0.1768775270888483</v>
+        <v>0.1550884154236556</v>
       </c>
       <c r="D18">
-        <v>0.1015687017694518</v>
+        <v>0.2782610348573229</v>
       </c>
       <c r="E18">
-        <v>0.1259515827205711</v>
+        <v>0.05784579203096207</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.7514941420162984</v>
+        <v>0.4492437706691419</v>
       </c>
       <c r="H18">
-        <v>0.8419368397054114</v>
+        <v>0.3553713801771465</v>
       </c>
       <c r="I18">
-        <v>0.8681298274366078</v>
+        <v>0.3850068491754755</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3792926296450787</v>
+        <v>1.227409145277164</v>
       </c>
       <c r="L18">
-        <v>0.2186645704519066</v>
+        <v>0.2069921998838282</v>
       </c>
       <c r="M18">
-        <v>0.1558435955782258</v>
+        <v>0.2859242341563544</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.195659182839506</v>
+        <v>1.644612581625211</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5222028461593027</v>
+        <v>1.321839475335878</v>
       </c>
       <c r="C19">
-        <v>0.1767412543792233</v>
+        <v>0.1546965266375722</v>
       </c>
       <c r="D19">
-        <v>0.1008812179430407</v>
+        <v>0.2757899174112026</v>
       </c>
       <c r="E19">
-        <v>0.1259878028108634</v>
+        <v>0.05777352468133401</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.7516637267050896</v>
+        <v>0.4481157340507735</v>
       </c>
       <c r="H19">
-        <v>0.8423150814910088</v>
+        <v>0.3553472234561212</v>
       </c>
       <c r="I19">
-        <v>0.8686352254768224</v>
+        <v>0.3852082409119149</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3761380897841775</v>
+        <v>1.217251543875591</v>
       </c>
       <c r="L19">
-        <v>0.2183728415015196</v>
+        <v>0.2055765902547932</v>
       </c>
       <c r="M19">
-        <v>0.1551709599526419</v>
+        <v>0.2834739777129158</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.196790104298913</v>
+        <v>1.642140158448001</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5375338729360806</v>
+        <v>1.373714147031677</v>
       </c>
       <c r="C20">
-        <v>0.1773543094538894</v>
+        <v>0.1564613935582031</v>
       </c>
       <c r="D20">
-        <v>0.1039772131161527</v>
+        <v>0.2869267942486005</v>
       </c>
       <c r="E20">
-        <v>0.1258280890270669</v>
+        <v>0.05810486818443472</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.7509307233787439</v>
+        <v>0.4532736819031129</v>
       </c>
       <c r="H20">
-        <v>0.8406355806497032</v>
+        <v>0.3555026322798085</v>
       </c>
       <c r="I20">
-        <v>0.8663884077420221</v>
+        <v>0.3843646470491642</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3903295337612462</v>
+        <v>1.262976754590653</v>
       </c>
       <c r="L20">
-        <v>0.2196923567427831</v>
+        <v>0.2119636872479589</v>
       </c>
       <c r="M20">
-        <v>0.1582008162447153</v>
+        <v>0.2945107523981747</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.1918114978875</v>
+        <v>1.653536603812853</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5890931925700329</v>
+        <v>1.548530889963217</v>
       </c>
       <c r="C21">
-        <v>0.1794106759974738</v>
+        <v>0.1624161527347496</v>
       </c>
       <c r="D21">
-        <v>0.1144183592975736</v>
+        <v>0.3246568891861443</v>
       </c>
       <c r="E21">
-        <v>0.1253488074904041</v>
+        <v>0.05932836326482693</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7489956245053264</v>
+        <v>0.4720905666298876</v>
       </c>
       <c r="H21">
-        <v>0.8353884391363238</v>
+        <v>0.3568675677758648</v>
       </c>
       <c r="I21">
-        <v>0.8593211115790815</v>
+        <v>0.3826629200568092</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4379325515270409</v>
+        <v>1.416914296477842</v>
       </c>
       <c r="L21">
-        <v>0.2242427247636982</v>
+        <v>0.233730193441815</v>
       </c>
       <c r="M21">
-        <v>0.1684312503744749</v>
+        <v>0.331788558524039</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.177020461451974</v>
+        <v>1.696732964762987</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6228233072489502</v>
+        <v>1.663245596950873</v>
       </c>
       <c r="C22">
-        <v>0.1807519200935843</v>
+        <v>0.1663289971708508</v>
       </c>
       <c r="D22">
-        <v>0.1212710948776987</v>
+        <v>0.3495752571410549</v>
       </c>
       <c r="E22">
-        <v>0.1250782087223499</v>
+        <v>0.06021378659988308</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7481243677122933</v>
+        <v>0.4855694988131773</v>
       </c>
       <c r="H22">
-        <v>0.8322537695284495</v>
+        <v>0.3584198830904484</v>
       </c>
       <c r="I22">
-        <v>0.8550611622991831</v>
+        <v>0.3824395779218577</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4689826192223165</v>
+        <v>1.517809406972674</v>
       </c>
       <c r="L22">
-        <v>0.2273034538911531</v>
+        <v>0.248202775892139</v>
       </c>
       <c r="M22">
-        <v>0.1751543807435567</v>
+        <v>0.3563161412011766</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.168796562447056</v>
+        <v>1.728842393486701</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6048181062131448</v>
+        <v>1.601973241749249</v>
       </c>
       <c r="C23">
-        <v>0.1800363314586946</v>
+        <v>0.1642385504357833</v>
       </c>
       <c r="D23">
-        <v>0.1176110376192696</v>
+        <v>0.3362502986812785</v>
       </c>
       <c r="E23">
-        <v>0.1252187368448929</v>
+        <v>0.05973312787457452</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7485533646450335</v>
+        <v>0.4782626451934817</v>
       </c>
       <c r="H23">
-        <v>0.8338998624502949</v>
+        <v>0.3575288386746536</v>
       </c>
       <c r="I23">
-        <v>0.8573019399711548</v>
+        <v>0.3824744893929299</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4524164050546915</v>
+        <v>1.463929495077537</v>
       </c>
       <c r="L23">
-        <v>0.225661967614883</v>
+        <v>0.2404546802754908</v>
       </c>
       <c r="M23">
-        <v>0.1715627842918721</v>
+        <v>0.3432090398144538</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.173053808075082</v>
+        <v>1.711335428004702</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5366917722185178</v>
+        <v>1.370863636450508</v>
       </c>
       <c r="C24">
-        <v>0.1773206558221574</v>
+        <v>0.1563643871087663</v>
       </c>
       <c r="D24">
-        <v>0.1038070484190428</v>
+        <v>0.2863141046911579</v>
       </c>
       <c r="E24">
-        <v>0.1258366438123844</v>
+        <v>0.05808626672041584</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.7509689916018516</v>
+        <v>0.4529850177217583</v>
       </c>
       <c r="H24">
-        <v>0.8407263211693987</v>
+        <v>0.3554910064813868</v>
       </c>
       <c r="I24">
-        <v>0.8665099798400178</v>
+        <v>0.3844068223117816</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3895504945802486</v>
+        <v>1.260464734309437</v>
       </c>
       <c r="L24">
-        <v>0.2196194542191847</v>
+        <v>0.2116118295510176</v>
       </c>
       <c r="M24">
-        <v>0.1580342390959188</v>
+        <v>0.2939039744885434</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.192077613540533</v>
+        <v>1.652892855596235</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4633712940616022</v>
+        <v>1.123110524386419</v>
       </c>
       <c r="C25">
-        <v>0.1743807878101507</v>
+        <v>0.1479461789616678</v>
       </c>
       <c r="D25">
-        <v>0.08904255652797133</v>
+        <v>0.2333914645075339</v>
       </c>
       <c r="E25">
-        <v>0.1266868261313405</v>
+        <v>0.05665508052284807</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.7552628519774487</v>
+        <v>0.430328413560332</v>
       </c>
       <c r="H25">
-        <v>0.8493568359845796</v>
+        <v>0.3559242913639622</v>
       </c>
       <c r="I25">
-        <v>0.8779839415336141</v>
+        <v>0.3900243146875226</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3214950393530671</v>
+        <v>1.041857506883616</v>
       </c>
       <c r="L25">
-        <v>0.2134767509219486</v>
+        <v>0.1814442338160944</v>
       </c>
       <c r="M25">
-        <v>0.143604712915284</v>
+        <v>0.2413091630905804</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.21879483704501</v>
+        <v>1.605099433978893</v>
       </c>
     </row>
   </sheetData>
